--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Division of Fractions 1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Division of Fractions 1.xlsx_with_dialog_acts.xlsx
@@ -779,12 +779,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1423,12 +1423,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1575,12 +1575,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2603,12 +2603,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2793,12 +2793,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2907,12 +2907,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2945,12 +2945,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3899,12 +3899,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4013,12 +4013,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4629,12 +4629,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4899,12 +4899,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5203,12 +5203,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -5241,12 +5241,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5279,12 +5279,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
